--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N2">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>151.0763573924064</v>
+        <v>224.9201341218005</v>
       </c>
       <c r="R2">
-        <v>1359.687216531657</v>
+        <v>2024.281207096204</v>
       </c>
       <c r="S2">
-        <v>0.1934243361491986</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="T2">
-        <v>0.1934243361491986</v>
+        <v>0.4318125698722839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>123.018252</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>369.054756</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N3">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>125.8738493468777</v>
+        <v>232.355808219416</v>
       </c>
       <c r="R3">
-        <v>1132.864644121899</v>
+        <v>2091.202273974744</v>
       </c>
       <c r="S3">
-        <v>0.1611573522733599</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="T3">
-        <v>0.1611573522733599</v>
+        <v>0.4460879372303942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.018252</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H4">
-        <v>369.054756</v>
+        <v>100.520389</v>
       </c>
       <c r="I4">
-        <v>0.5381309351710767</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J4">
-        <v>0.5381309351710768</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N4">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>229.281049022844</v>
+        <v>63.28734652216512</v>
       </c>
       <c r="R4">
-        <v>2063.529441205596</v>
+        <v>569.586118699486</v>
       </c>
       <c r="S4">
-        <v>0.2935504632511386</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="T4">
-        <v>0.2935504632511386</v>
+        <v>0.121502113845152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>123.018252</v>
+        <v>0.16474</v>
       </c>
       <c r="H5">
-        <v>369.054756</v>
+        <v>0.49422</v>
       </c>
       <c r="I5">
-        <v>0.5381309351710767</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J5">
-        <v>0.5381309351710768</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N5">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O5">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>191.032460147508</v>
+        <v>0.3111594842533333</v>
       </c>
       <c r="R5">
-        <v>1719.292141327572</v>
+        <v>2.80043535828</v>
       </c>
       <c r="S5">
-        <v>0.2445804719199381</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="T5">
-        <v>0.2445804719199382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>24.16373066666667</v>
-      </c>
-      <c r="H6">
-        <v>72.491192</v>
-      </c>
-      <c r="I6">
-        <v>0.1057018025331343</v>
-      </c>
-      <c r="J6">
-        <v>0.1057018025331344</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.863797</v>
-      </c>
-      <c r="N6">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q6">
-        <v>45.03628872534134</v>
-      </c>
-      <c r="R6">
-        <v>405.3265985280721</v>
-      </c>
-      <c r="S6">
-        <v>0.05766034076858565</v>
-      </c>
-      <c r="T6">
-        <v>0.05766034076858567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>24.16373066666667</v>
-      </c>
-      <c r="H7">
-        <v>72.491192</v>
-      </c>
-      <c r="I7">
-        <v>0.1057018025331343</v>
-      </c>
-      <c r="J7">
-        <v>0.1057018025331344</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.552879</v>
-      </c>
-      <c r="N7">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q7">
-        <v>37.52334991392267</v>
-      </c>
-      <c r="R7">
-        <v>337.710149225304</v>
-      </c>
-      <c r="S7">
-        <v>0.04804146176454867</v>
-      </c>
-      <c r="T7">
-        <v>0.04804146176454869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.3624666666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.0874</v>
-      </c>
-      <c r="I8">
-        <v>0.001585573873230423</v>
-      </c>
-      <c r="J8">
-        <v>0.001585573873230423</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>1.863797</v>
-      </c>
-      <c r="N8">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P8">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q8">
-        <v>0.6755642859333334</v>
-      </c>
-      <c r="R8">
-        <v>6.080078573400001</v>
-      </c>
-      <c r="S8">
-        <v>0.0008649306601519263</v>
-      </c>
-      <c r="T8">
-        <v>0.0008649306601519265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.3624666666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.0874</v>
-      </c>
-      <c r="I9">
-        <v>0.001585573873230423</v>
-      </c>
-      <c r="J9">
-        <v>0.001585573873230423</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.552879</v>
-      </c>
-      <c r="N9">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P9">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q9">
-        <v>0.5628668748666666</v>
-      </c>
-      <c r="R9">
-        <v>5.0658018738</v>
-      </c>
-      <c r="S9">
-        <v>0.0007206432130784969</v>
-      </c>
-      <c r="T9">
-        <v>0.000720643213078497</v>
+        <v>0.000597379052169715</v>
       </c>
     </row>
   </sheetData>
